--- a/docs/ExcelHibrido.xlsx
+++ b/docs/ExcelHibrido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luist\Desktop\TP2_IIA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56028A65-990D-48FF-B6D2-3163FB2826D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAF2BEA-3647-4D9F-A8EC-3505EB3B9B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
